--- a/data-raw/huehn.stability.xlsx
+++ b/data-raw/huehn.stability.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1F1F1D-03C3-4432-B5B6-BCF47F4DB19D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="108" windowWidth="14208" windowHeight="6192"/>
+    <workbookView xWindow="40455" yWindow="2445" windowWidth="11385" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,14 +132,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -171,7 +180,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -243,7 +252,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,16 +425,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="5.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -496,7 +505,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -567,7 +576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -638,7 +647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -709,7 +718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -780,7 +789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -851,7 +860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -922,7 +931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -993,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1064,7 +1073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1135,7 +1144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1206,7 +1215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1277,7 +1286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1348,7 +1357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1419,7 +1428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1490,7 +1499,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1561,7 +1570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1632,7 +1641,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1703,7 +1712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1774,7 +1783,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1851,24 +1860,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
